--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2211476.202936433</v>
+        <v>2213799.8747503</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="E2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>21.84039882228386</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,55 +737,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
         <v>53.51252900994975</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="V4" t="n">
-        <v>26.16190956546853</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,13 +913,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>198.0343424855785</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18.29749587628852</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>68.29221919223491</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>173.3028877241946</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>21.85442600983729</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>125.2690649859412</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1308047177962</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>84.8410341333234</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1503,16 +1505,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>79.73605578874087</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>143.0797107018699</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,13 +1739,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>92.31192385075794</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>89.89109712599213</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.2949394844275</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>165.654509153542</v>
       </c>
     </row>
     <row r="22">
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,11 +2317,11 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
@@ -2327,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -2445,13 +2447,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>162.0225940411635</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>184.5924278294027</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2515,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>114.2004021190554</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>147.9845033927267</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>142.8673256144868</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -2874,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.014288877659</v>
+        <v>212.5812972802568</v>
       </c>
       <c r="X30" t="n">
-        <v>29.88929839105553</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,73 +3031,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>166.5342668944928</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>54.10831395794592</v>
       </c>
     </row>
     <row r="34">
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>32.00415329280587</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.13918734298657</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>82.46119763909357</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>36.89750082124304</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.04256796641222</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,55 +3663,55 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>45.89118260048513</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>173.3839836991738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3922,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>22.0339917726842</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.05069677449606</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>200.2249506381835</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4174,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4310,22 +4312,22 @@
         <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354235</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,16 +4336,16 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4367,13 +4369,13 @@
         <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
         <v>4.28100232079598</v>
@@ -4413,10 +4415,10 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="4">
@@ -4519,16 +4521,16 @@
         <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>84.76023320505688</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
+        <v>138.8132928110667</v>
+      </c>
+      <c r="W4" t="n">
+        <v>112.3871215328157</v>
+      </c>
+      <c r="X4" t="n">
         <v>58.33406192680583</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.28100232079598</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
         <v>4.28100232079598</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>784.1002736601483</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>540.6514970160482</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>540.6514970160482</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X5" t="n">
-        <v>784.1002736601483</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>784.1002736601483</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C6" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D6" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E6" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y6" t="n">
-        <v>257.2326523711826</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="7">
@@ -4741,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C8" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D8" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E8" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W8" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X8" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.2693145670932</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="C9" t="n">
-        <v>259.2693145670932</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>837.522746433928</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>635.3361517926941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>635.3361517926941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>635.3361517926941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>635.3361517926941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>427.4846515871612</v>
+        <v>748.6140859445359</v>
       </c>
       <c r="Y9" t="n">
-        <v>427.4846515871612</v>
+        <v>540.853787179582</v>
       </c>
     </row>
     <row r="10">
@@ -4996,7 +4998,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>941.9819777229218</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178.5185981156682</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C12" t="n">
-        <v>178.5185981156682</v>
+        <v>104.979157386297</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>104.979157386297</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>104.979157386297</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>104.979157386297</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>104.979157386297</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5121,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>178.5185981156682</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W12" t="n">
-        <v>178.5185981156682</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X12" t="n">
-        <v>178.5185981156682</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.5185981156682</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E14" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5312,16 +5314,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.8157010833278</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C15" t="n">
-        <v>165.8157010833278</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D15" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,16 +5366,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5387,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>165.8157010833278</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W15" t="n">
-        <v>165.8157010833278</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X15" t="n">
-        <v>165.8157010833278</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y15" t="n">
-        <v>165.8157010833278</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5689,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>279.1848366757484</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C21" t="n">
-        <v>279.1848366757484</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D21" t="n">
-        <v>279.1848366757484</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>958.7087317889923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>958.7087317889923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>958.7087317889923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>730.4851135253814</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>730.4851135253814</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>487.0363368812813</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>279.1848366757484</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.1848366757484</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J22" t="n">
         <v>19.28114311021272</v>
@@ -5929,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
@@ -5975,7 +5977,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6017,19 +6019,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
         <v>506.1786963984129</v>
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>268.8182272585117</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C24" t="n">
-        <v>268.8182272585117</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D24" t="n">
-        <v>268.8182272585117</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E24" t="n">
-        <v>109.5807722530562</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
         <v>109.5807722530562</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>699.2284401633567</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>497.0418455221227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>268.8182272585117</v>
+        <v>676.4306282560444</v>
       </c>
       <c r="V24" t="n">
-        <v>268.8182272585117</v>
+        <v>676.4306282560444</v>
       </c>
       <c r="W24" t="n">
-        <v>268.8182272585117</v>
+        <v>676.4306282560444</v>
       </c>
       <c r="X24" t="n">
-        <v>268.8182272585117</v>
+        <v>676.4306282560444</v>
       </c>
       <c r="Y24" t="n">
-        <v>268.8182272585117</v>
+        <v>676.4306282560444</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>397.4029371266039</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
         <v>109.5807722530562</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>848.7032139762368</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>848.7032139762368</v>
       </c>
       <c r="V27" t="n">
-        <v>109.5807722530562</v>
+        <v>848.7032139762368</v>
       </c>
       <c r="W27" t="n">
-        <v>109.5807722530562</v>
+        <v>605.2544373321367</v>
       </c>
       <c r="X27" t="n">
-        <v>109.5807722530562</v>
+        <v>397.4029371266039</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>397.4029371266039</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C29" t="n">
-        <v>376.1934816808115</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D29" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X29" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y29" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990951</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879775</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>735.09358107686</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
         <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106361</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106361</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106361</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470251</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152824</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711823</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203654</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203654</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203654</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280783</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203005</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757368</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>877.0247885897327</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203654</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6739,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>332.4649978087242</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>795.8407243040779</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>567.617106040467</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>332.4649978087242</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>332.4649978087242</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>332.4649978087242</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>332.4649978087242</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="34">
@@ -6874,19 +6876,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
@@ -6956,28 +6958,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
         <v>506.1786963984129</v>
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>339.4307355522512</v>
+        <v>42.65405961827997</v>
       </c>
       <c r="C36" t="n">
-        <v>164.9777062711242</v>
+        <v>42.65405961827997</v>
       </c>
       <c r="D36" t="n">
-        <v>164.9777062711242</v>
+        <v>42.65405961827997</v>
       </c>
       <c r="E36" t="n">
-        <v>164.9777062711242</v>
+        <v>42.65405961827997</v>
       </c>
       <c r="F36" t="n">
-        <v>164.9777062711242</v>
+        <v>42.65405961827997</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>42.65405961827997</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>42.65405961827997</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W36" t="n">
-        <v>547.1910343172051</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X36" t="n">
-        <v>547.1910343172051</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.4307355522512</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>397.4029371266039</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C39" t="n">
-        <v>222.9499078454769</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="D39" t="n">
-        <v>222.9499078454769</v>
+        <v>57.30547861273888</v>
       </c>
       <c r="E39" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>619.4388494194218</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X39" t="n">
-        <v>411.587349213889</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y39" t="n">
-        <v>397.4029371266039</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
         <v>829.5248650203655</v>
@@ -7357,25 +7359,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7445,16 +7447,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>317.2494235330527</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="C42" t="n">
-        <v>317.2494235330527</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D42" t="n">
-        <v>317.2494235330527</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E42" t="n">
         <v>158.0119685275972</v>
@@ -7491,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>542.0984864205911</v>
       </c>
       <c r="V42" t="n">
-        <v>735.8335372470253</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="W42" t="n">
-        <v>492.3847606029253</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="X42" t="n">
-        <v>492.3847606029253</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="Y42" t="n">
-        <v>317.2494235330527</v>
+        <v>306.9463781888485</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>559.1338160830064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V44" t="n">
-        <v>559.1338160830064</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W44" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>272.1352367728036</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="C45" t="n">
-        <v>272.1352367728036</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D45" t="n">
-        <v>272.1352367728036</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="X45" t="n">
-        <v>310.5702840197694</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.5702840197694</v>
+        <v>761.8097306235821</v>
       </c>
     </row>
     <row r="46">
@@ -7822,19 +7824,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U46" t="n">
         <v>829.5248650203655</v>
@@ -7982,19 +7984,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,13 +8063,13 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8298,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9012,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723096</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5030352242461</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>27.39441010317306</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23391,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>153.0645313606844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456287</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>325.9427623970988</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>29.6287882864458</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,13 +23627,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>140.4886632986673</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>110.2736315688295</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23929,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23987,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24026,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.86289466821563</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>40.02818662376234</v>
       </c>
     </row>
     <row r="22">
@@ -24148,7 +24150,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -24169,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>46.33425578299913</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24257,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,16 +24293,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>9.660577062674292</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>41.34895425157214</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24403,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,10 +24505,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>85.96432657576622</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>84.81608375669853</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>196.6074765012803</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -24762,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326058</v>
+        <v>39.11368588066279</v>
       </c>
       <c r="X30" t="n">
-        <v>175.883686812422</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>140.004192713242</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24859,7 +24861,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24880,10 +24882,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,16 +24919,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25047,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>33.63046180032885</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>151.5743818193585</v>
       </c>
     </row>
     <row r="34">
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>105.3393638704048</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>66.2574455084285</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>300.272644024387</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>120.7475796341579</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>191.6401278108922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25710,10 +25712,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>180.0501994804897</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>32.29871207813054</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25810,7 +25812,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>264.2850375838067</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>128.4824868753713</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,19 +25997,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>32.57563651124175</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26062,13 +26064,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>315764.8227546034</v>
+        <v>315764.8227546035</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315764.8227546035</v>
+        <v>315764.8227546037</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>315764.8227546036</v>
+        <v>315764.8227546035</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>315764.8227546035</v>
+        <v>315764.8227546036</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>315764.8227546035</v>
+        <v>315764.8227546036</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>315764.8227546036</v>
+        <v>315764.8227546034</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26316,10 @@
         <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>274165.1096766985</v>
@@ -26326,7 +26328,7 @@
         <v>274165.1096766985</v>
       </c>
       <c r="G2" t="n">
-        <v>274165.1096766983</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="H2" t="n">
         <v>274165.1096766985</v>
@@ -26338,16 +26340,16 @@
         <v>274165.1096766985</v>
       </c>
       <c r="K2" t="n">
-        <v>274165.1096766983</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="L2" t="n">
-        <v>274165.1096766983</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="M2" t="n">
         <v>274165.1096766985</v>
       </c>
       <c r="N2" t="n">
-        <v>274165.1096766984</v>
+        <v>274165.1096766985</v>
       </c>
       <c r="O2" t="n">
         <v>274165.1096766985</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335761.7110049646</v>
+        <v>335761.7110049645</v>
       </c>
       <c r="C4" t="n">
         <v>287492.6387038018</v>
@@ -26439,13 +26441,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
@@ -26454,7 +26456,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
         <v>8547.111069342402</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286783.3081098629</v>
+        <v>286783.308109863</v>
       </c>
       <c r="C6" t="n">
-        <v>281009.2304838022</v>
+        <v>281009.230483802</v>
       </c>
       <c r="D6" t="n">
-        <v>341585.5526704703</v>
+        <v>341585.55267047</v>
       </c>
       <c r="E6" t="n">
         <v>250964.3298435944</v>
@@ -26534,7 +26536,7 @@
         <v>250964.3298435944</v>
       </c>
       <c r="G6" t="n">
-        <v>250964.3298435942</v>
+        <v>250964.3298435944</v>
       </c>
       <c r="H6" t="n">
         <v>250964.3298435944</v>
@@ -26546,16 +26548,16 @@
         <v>236963.0977033151</v>
       </c>
       <c r="K6" t="n">
-        <v>202707.3769099617</v>
+        <v>202707.3769099618</v>
       </c>
       <c r="L6" t="n">
-        <v>250964.3298435943</v>
+        <v>250964.3298435944</v>
       </c>
       <c r="M6" t="n">
         <v>250964.3298435944</v>
       </c>
       <c r="N6" t="n">
-        <v>250964.3298435943</v>
+        <v>250964.3298435944</v>
       </c>
       <c r="O6" t="n">
         <v>250964.3298435944</v>
@@ -26814,7 +26816,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
         <v>241.0142888776591</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.667977894723</v>
       </c>
       <c r="E2" t="n">
         <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0356469194276</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.02399860067941</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>118.1706420938881</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>158.6391496515137</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27591,19 +27593,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>232.8065003465411</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>225.9757337583595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>260.3610887711225</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.072124342145</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>129.7179159845564</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>351.4336048021805</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27704,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>76.77699320114897</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>32.3798080531098</v>
       </c>
     </row>
     <row r="7">
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,13 +27830,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>385.0216197318741</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27874,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>325.9427623970988</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
@@ -27947,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>46.41410611789667</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>92.64218048568131</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28068,10 +28070,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,19 +34704,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35732,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628807</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9067907798016</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
